--- a/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
+++ b/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\SocSys\auto_informer\autoinformer\pcb\v1.0\Project Outputs for Autoinformer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E9537F-98EB-478A-B980-1899CD33CCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="1485" windowWidth="17820" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="1485" windowWidth="17820" windowHeight="13095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>Проверяемая часть</t>
   </si>
@@ -72,9 +66,6 @@
     <t>NORM</t>
   </si>
   <si>
-    <t>В ОС интерфейс появился не сразу. Возможно это связано с регистрацией симки \ модуля в сотовой сети.</t>
-  </si>
-  <si>
     <t>Наводки на аудиоусилитель от антенны при сотовой связи  вызывают слышимые пощелкивания динамика</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>Питание микрофона MICBIAS выдается не  аппаратно  (не постоянно), а программно (включается и отключается) из-за чего показания АЦП оказываются  не всегда корректны</t>
   </si>
   <si>
-    <t>Добавить кнопку для включения модуля</t>
-  </si>
-  <si>
     <t>MPU SIMCOM</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Переделать посадочное место KLS7-TS6606 -7.0</t>
   </si>
   <si>
-    <t>BAK_ON GPIO</t>
-  </si>
-  <si>
     <t>LEDs GPIO</t>
   </si>
   <si>
@@ -129,20 +114,15 @@
     <t>При нажатии кнопки (включении микрофона) динамик начинает громко свистеть из-за возникающей обратной связи микрофона с усилителем.</t>
   </si>
   <si>
-    <t>Зарядка до 4.27 В макс ток 0.5 А</t>
-  </si>
-  <si>
     <t>Между MOUT и С31 поставить регулятор громкости (переменный резистор 10к - 47к)</t>
   </si>
   <si>
     <t>Перенести сигнал на ADC2 (?)</t>
   </si>
   <si>
-    <t>Напряжение с аккумулятора просачивается через 3V8_EXT в цепь 5V (вероятнее всего через DA5). Так, несмотря на то, что модуль SIMCOM выключен, аккумулятор разряжается, питая оставшуюся часть платы</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Условия испытаний: Обмен по 4G, Включен GPS, Заряжается аккумулятор, Воспроизводится Аудио.   </t>
+      <t xml:space="preserve">Условия испытаний: Обмен по 4G, Включен GPS, Заряжается аккумулятор, Воспроизводится Аудио. 
+  </t>
     </r>
     <r>
       <rPr>
@@ -154,18 +134,100 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>12 V - 1.2 A, 24 V - 0.6 A</t>
+      <t>12 V - 1.2 A, 
+24 V - 0.6 A</t>
     </r>
   </si>
   <si>
-    <t>ОС не дает обратиться к GPIO1020 т.к. его использует один из драйверов</t>
+    <r>
+      <t xml:space="preserve">В ОС интерфейс появился не сразу. Возможно это связано с регистрацией симки \ модуля в сотовой сети.
+ RSSI : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-69 dB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (дома) , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-57 dB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (в офисе).
+ Отличные показатели: RSSI до -65
+Хорошие показатели: RSSI от -65 до -75</t>
+    </r>
+  </si>
+  <si>
+    <t>Добавить кнопку для включения модуля (?)</t>
+  </si>
+  <si>
+    <t>GPIO_79 не доступен в ОС</t>
+  </si>
+  <si>
+    <t>ОС не дает обратиться к GPIO_1020 т.к. его использует один из драйверов</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>1. При остутствии внешнего питания образующийся делитель R64 | (R33 + R34) нарушает работу инвертора VT5, в результате через VT6 (открыт) напряжение аккумулятора оказывается на 3V8_EXT, ломая логику схемы.
+2. При переходе с внешнего питания на резервное напряжение аккумулятора с VT7(D) оказывается на открытом VT6 (RST не успевает сброситься и через VT5 закрыть VT6), что приводит снова к попаданию 3V8_INT на 3V8_EXT, нарушая логику схемы.</t>
+  </si>
+  <si>
+    <t>1. Изменить номиналы R64 1k, R33 22k, R34 15k или поставить ключ (или взять сигнал на делитель до инвертора (пин 1 MCP130). R63 будет избыточен. Вместо него будут R33, 34)
+2. Запитывать D6 не 3V8_EXT, а 5V . Поменять пороговое напряжение сброса</t>
+  </si>
+  <si>
+    <t>Переход на аккум. питание BAK_ON GPIO</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>R46, R47 не напаивать</t>
+  </si>
+  <si>
+    <t>Зарядка до 4.2 В макс ток 1 А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +255,15 @@
       <b/>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -234,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,6 +322,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,7 +393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -347,7 +428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -524,21 +605,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -546,7 +627,7 @@
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,27 +635,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -584,7 +665,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -594,7 +675,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -604,7 +685,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="75">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -612,11 +693,11 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -626,9 +707,9 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -636,209 +717,229 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="45">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="60">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="120">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
+++ b/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>Проверяемая часть</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Между MOUT и С31 поставить регулятор громкости (переменный резистор 10к - 47к)</t>
-  </si>
-  <si>
-    <t>Перенести сигнал на ADC2 (?)</t>
   </si>
   <si>
     <r>
@@ -191,9 +188,6 @@
     </r>
   </si>
   <si>
-    <t>Добавить кнопку для включения модуля (?)</t>
-  </si>
-  <si>
     <t>GPIO_79 не доступен в ОС</t>
   </si>
   <si>
@@ -203,14 +197,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>1. При остутствии внешнего питания образующийся делитель R64 | (R33 + R34) нарушает работу инвертора VT5, в результате через VT6 (открыт) напряжение аккумулятора оказывается на 3V8_EXT, ломая логику схемы.
-2. При переходе с внешнего питания на резервное напряжение аккумулятора с VT7(D) оказывается на открытом VT6 (RST не успевает сброситься и через VT5 закрыть VT6), что приводит снова к попаданию 3V8_INT на 3V8_EXT, нарушая логику схемы.</t>
-  </si>
-  <si>
-    <t>1. Изменить номиналы R64 1k, R33 22k, R34 15k или поставить ключ (или взять сигнал на делитель до инвертора (пин 1 MCP130). R63 будет избыточен. Вместо него будут R33, 34)
-2. Запитывать D6 не 3V8_EXT, а 5V . Поменять пороговое напряжение сброса</t>
-  </si>
-  <si>
     <t>Переход на аккум. питание BAK_ON GPIO</t>
   </si>
   <si>
@@ -221,18 +207,184 @@
   </si>
   <si>
     <t>Зарядка до 4.2 В макс ток 1 А</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При остутствии внешнего питания образующийся делитель R64 | (R33 + R34) нарушает работу инвертора VT5, в результате через VT6 (открыт) напряжение аккумулятора оказывается на 3V8_EXT, ломая логику схемы.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> При переходе с внешнего питания на резервное напряжение аккумулятора с VT7(D) оказывается на открытом VT6 (RST не успевает сброситься и через VT5 закрыть VT6), что приводит снова к попаданию 3V8_INT на 3V8_EXT, нарушая логику схемы.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Если в момент зарядки аккумулятора (DA3 синий светодиод горит) происходит отключени основого питания, видимо через микросхему напряжение с батареи попадает на линию 5 V, нарушая правила питания платы.</t>
+    </r>
+  </si>
+  <si>
+    <t>Добавить кнопку для включения модуля (?) или предусмотреть цепь автосброса</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Изменить номиналы R64 1k, R33 22k, R34 15k или поставить ключ (или взять сигнал на делитель до инвертора (пин 1 MCP130). R63 будет избыточен. Вместо него будут R33, 34)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Запитывать D6 не 3V8_EXT, а 5V . 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Поменять пороговое напряжение сброса D6  (поставить MCP130T-450I/TT) чтобы VT6 закрывался и не давал устанавливаться 3V8_EXT -&gt; 5V. </t>
+    </r>
+  </si>
+  <si>
+    <t>Перенести сигнал на ADC2 (?) или использовать встроенный в модуль монитор напряжения питания через АТ-команду</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экран немного моргает. У i2c преобразователя диспеля необходимо отпаять подтягивающие SDA и SCL резисторы 4.7k т.к. они уже есть на плате </t>
+  </si>
+  <si>
+    <t>Заключение:</t>
+  </si>
+  <si>
+    <t>Плата пригодна для демонстрации функционала и разработки ПО, но для выхода в свет требуются доработки</t>
+  </si>
+  <si>
+    <t>Добавить конденсатор и дроссель от ЭМП по питанию.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -301,14 +453,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -317,20 +495,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -605,7 +798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -613,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D34"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -624,7 +817,7 @@
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="67" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="30.75" customHeight="1">
@@ -641,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -651,8 +844,8 @@
       <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>35</v>
+      <c r="D3" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -693,7 +886,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -787,29 +980,35 @@
         <v>10</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="45">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8"/>
@@ -835,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -853,32 +1052,32 @@
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="120">
+    <row r="23" spans="1:4" ht="180">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30">
+        <v>36</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -889,60 +1088,26 @@
         <v>10</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="28" spans="1:4" ht="30" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
+++ b/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\SocSys\auto_informer\autoinformer\pcb\v1.0\Project Outputs for Autoinformer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DD8CF-F2FE-447A-A513-E8B913505F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="1485" windowWidth="17820" windowHeight="13095"/>
+    <workbookView xWindow="10110" yWindow="1830" windowWidth="17820" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -355,23 +361,25 @@
     <t>Перенести сигнал на ADC2 (?) или использовать встроенный в модуль монитор напряжения питания через АТ-команду</t>
   </si>
   <si>
-    <t xml:space="preserve">Экран немного моргает. У i2c преобразователя диспеля необходимо отпаять подтягивающие SDA и SCL резисторы 4.7k т.к. они уже есть на плате </t>
-  </si>
-  <si>
     <t>Заключение:</t>
   </si>
   <si>
     <t>Плата пригодна для демонстрации функционала и разработки ПО, но для выхода в свет требуются доработки</t>
   </si>
   <si>
-    <t>Добавить конденсатор и дроссель от ЭМП по питанию.</t>
+    <t>1. Экран немного моргает. У i2c преобразователя диспеля необходимо отпаять подтягивающие SDA и SCL резисторы 4.7k т.к. они уже есть на плате 
+2. Микросхема управления дисплеем не может ответить на команды. Выбран преобразователь уровней не поддерживающий open-drain порты</t>
+  </si>
+  <si>
+    <t>1. Добавить конденсатор и дроссель от ЭМП по питанию.
+2. Заменить D3 на TXS0104EPW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -798,21 +806,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -820,7 +828,7 @@
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="30.75" customHeight="1">
+    <row r="2" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -834,7 +842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -848,7 +856,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,7 +866,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,7 +876,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -878,7 +886,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="75">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -890,7 +898,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -900,7 +908,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -910,7 +918,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -924,7 +932,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -936,7 +944,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -946,7 +954,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -958,7 +966,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -972,7 +980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
@@ -984,7 +992,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>38</v>
       </c>
@@ -996,27 +1004,27 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="45">
+    <row r="17" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>10</v>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1026,7 +1034,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="60">
+    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1046,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
@@ -1046,18 +1054,18 @@
       <c r="C21" s="4"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="180">
+    <row r="23" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>36</v>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>41</v>
@@ -1066,7 +1074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45">
+    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1080,7 +1088,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1092,13 +1100,13 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1">
+    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D28" s="15"/>
     </row>

--- a/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
+++ b/pcb/v1.0/Project Outputs for Autoinformer/Autoinformer_v1.0_Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\SocSys\auto_informer\autoinformer\pcb\v1.0\Project Outputs for Autoinformer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12DD8CF-F2FE-447A-A513-E8B913505F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F0F4D-ABBA-45C3-9A1D-5BCD4774A7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10110" yWindow="1830" windowWidth="17820" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="240" windowWidth="17820" windowHeight="14325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>Проверяемая часть</t>
   </si>
@@ -373,6 +373,11 @@
   <si>
     <t>1. Добавить конденсатор и дроссель от ЭМП по питанию.
 2. Заменить D3 на TXS0104EPW</t>
+  </si>
+  <si>
+    <t>кротковременное КЗ на входе - ОК
+Запуск от аккума - ОК
+На входе 7 В \ 30 В - ОК</t>
   </si>
 </sst>
 </file>
@@ -816,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,12 +1051,14 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
